--- a/biology/Zoologie/Arabibarbus/Arabibarbus.xlsx
+++ b/biology/Zoologie/Arabibarbus/Arabibarbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arabibarbus[1] est un genre de poissons téléostéens  de l'ordre des Cypriniformes et de la famille des Cyprinidae. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arabibarbus est un genre de poissons téléostéens  de l'ordre des Cypriniformes et de la famille des Cyprinidae. 
 Les Arabibarbus sont de grandes carpes d'eau douce qui se rencontrent dans la péninsule arabique, la Mésopotamie et l'Iran.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Borkenhagen, K. (2014)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Borkenhagen, K. (2014):
 Arabibarbus arabicus (Trewavas, 1941)
 Arabibarbus grypus (Heckel, 1843)
-Arabibarbus hadhrami Borkenhagen, 2014[1]</t>
+Arabibarbus hadhrami Borkenhagen, 2014</t>
         </is>
       </c>
     </row>
